--- a/FMS.Website/files_upload/masterLocationMapping.xlsx
+++ b/FMS.Website/files_upload/masterLocationMapping.xlsx
@@ -1,113 +1,450 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>LOCATION</t>
   </si>
   <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>BASETOWN</t>
+  </si>
+  <si>
+    <t>REGIONAL</t>
+  </si>
+  <si>
+    <t>ZONE SALES</t>
+  </si>
+  <si>
+    <t>ZONA PRICE LIST</t>
+  </si>
+  <si>
+    <t>VALIDITY FROM</t>
+  </si>
+  <si>
+    <t>ACEH 1</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>DPC Meulaboh - Aceh Barat</t>
+  </si>
+  <si>
+    <t>Test I</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ACEH 2</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
     <t>Area Banda Aceh</t>
   </si>
   <si>
-    <t>DPC Meulaboh - Aceh Barat</t>
-  </si>
-  <si>
-    <t>REGIONAL</t>
-  </si>
-  <si>
-    <t>ZONE SALES</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>ZONA PRICE LIST</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test I</t>
-  </si>
-  <si>
     <t>Test II</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>VALIDITY FROM</t>
-  </si>
-  <si>
-    <t>1 Nov 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -117,51 +454,338 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 2 3" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2 2" xfId="49"/>
+    <cellStyle name="Normal 2 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,114 +1043,119 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4285714285714" customWidth="1"/>
+    <col min="2" max="3" width="28.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7">
+        <v>42948</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="151" s="1" customFormat="1"/>
-    <row r="158" s="1" customFormat="1"/>
+    <row r="101" s="2" customFormat="1"/>
+    <row r="102" s="2" customFormat="1"/>
+    <row r="103" s="2" customFormat="1"/>
+    <row r="104" s="2" customFormat="1"/>
+    <row r="105" s="2" customFormat="1"/>
+    <row r="106" s="2" customFormat="1"/>
+    <row r="107" s="2" customFormat="1"/>
+    <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="113" s="2" customFormat="1"/>
+    <row r="115" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
+    <row r="117" s="2" customFormat="1"/>
+    <row r="118" s="2" customFormat="1"/>
+    <row r="119" s="2" customFormat="1"/>
+    <row r="120" s="2" customFormat="1"/>
+    <row r="151" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:E159"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:F159"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FMS.Website/files_upload/masterLocationMapping.xlsx
+++ b/FMS.Website/files_upload/masterLocationMapping.xlsx
@@ -10,14 +10,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$160</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>*Copy Format</t>
+  </si>
   <si>
     <t>LOCATION</t>
   </si>
@@ -73,11 +76,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,29 +97,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,62 +150,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,23 +179,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,23 +195,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,187 +255,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,11 +470,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,13 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,193 +557,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -721,12 +723,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
@@ -1049,10 +1053,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1062,98 +1066,103 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="7:7">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42948</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="7">
         <v>42948</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>42948</v>
+      </c>
+    </row>
     <row r="102" s="2" customFormat="1"/>
     <row r="103" s="2" customFormat="1"/>
     <row r="104" s="2" customFormat="1"/>
     <row r="105" s="2" customFormat="1"/>
     <row r="106" s="2" customFormat="1"/>
     <row r="107" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
+    <row r="108" s="2" customFormat="1"/>
     <row r="112" s="2" customFormat="1"/>
     <row r="113" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
     <row r="116" s="2" customFormat="1"/>
     <row r="117" s="2" customFormat="1"/>
     <row r="118" s="2" customFormat="1"/>
     <row r="119" s="2" customFormat="1"/>
     <row r="120" s="2" customFormat="1"/>
-    <row r="151" s="2" customFormat="1"/>
-    <row r="158" s="2" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="159" s="2" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:F159"/>
+  <autoFilter ref="A2:F160"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
